--- a/Code/Results/Cases/Case_5_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_117/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00700595323723</v>
+        <v>1.031554796368141</v>
       </c>
       <c r="D2">
-        <v>1.024372885327819</v>
+        <v>1.03669790318922</v>
       </c>
       <c r="E2">
-        <v>1.012462523687149</v>
+        <v>1.031111575187526</v>
       </c>
       <c r="F2">
-        <v>1.013280835312599</v>
+        <v>1.042140145816711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047775483627327</v>
+        <v>1.038605971110588</v>
       </c>
       <c r="J2">
-        <v>1.02897911778221</v>
+        <v>1.036689879752767</v>
       </c>
       <c r="K2">
-        <v>1.035502797018332</v>
+        <v>1.039490901972486</v>
       </c>
       <c r="L2">
-        <v>1.023750923755773</v>
+        <v>1.03392063742663</v>
       </c>
       <c r="M2">
-        <v>1.024558196463724</v>
+        <v>1.044917675235453</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011369789154961</v>
+        <v>1.032460036712933</v>
       </c>
       <c r="D3">
-        <v>1.027692034262041</v>
+        <v>1.037400536042004</v>
       </c>
       <c r="E3">
-        <v>1.015942842983744</v>
+        <v>1.03187961037638</v>
       </c>
       <c r="F3">
-        <v>1.018541128022985</v>
+        <v>1.043306765786308</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049404955701816</v>
+        <v>1.038879744769842</v>
       </c>
       <c r="J3">
-        <v>1.031555229059684</v>
+        <v>1.037237269270151</v>
       </c>
       <c r="K3">
-        <v>1.037982438965674</v>
+        <v>1.040003473749549</v>
       </c>
       <c r="L3">
-        <v>1.026375716489115</v>
+        <v>1.03449727674933</v>
       </c>
       <c r="M3">
-        <v>1.028942143245113</v>
+        <v>1.045894133353827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014135110283141</v>
+        <v>1.033046064061433</v>
       </c>
       <c r="D4">
-        <v>1.02979720862476</v>
+        <v>1.037855333895837</v>
       </c>
       <c r="E4">
-        <v>1.018153984395806</v>
+        <v>1.032377192438332</v>
       </c>
       <c r="F4">
-        <v>1.021875822548746</v>
+        <v>1.044062255530107</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050426938775522</v>
+        <v>1.039055692806187</v>
       </c>
       <c r="J4">
-        <v>1.033184021792907</v>
+        <v>1.037591117351046</v>
       </c>
       <c r="K4">
-        <v>1.039548831850862</v>
+        <v>1.040334615681425</v>
       </c>
       <c r="L4">
-        <v>1.028038135025303</v>
+        <v>1.034870353501824</v>
       </c>
       <c r="M4">
-        <v>1.031717204643886</v>
+        <v>1.046526001143164</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015284167663714</v>
+        <v>1.033292495258369</v>
       </c>
       <c r="D5">
-        <v>1.030672362123087</v>
+        <v>1.038046565017826</v>
       </c>
       <c r="E5">
-        <v>1.019074094217086</v>
+        <v>1.032586521217617</v>
       </c>
       <c r="F5">
-        <v>1.02326183361944</v>
+        <v>1.044380009051141</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050849022054023</v>
+        <v>1.039129373161291</v>
       </c>
       <c r="J5">
-        <v>1.033859918523442</v>
+        <v>1.037739790641141</v>
       </c>
       <c r="K5">
-        <v>1.040198488807637</v>
+        <v>1.04047370094398</v>
       </c>
       <c r="L5">
-        <v>1.028728666638085</v>
+        <v>1.035027182730889</v>
       </c>
       <c r="M5">
-        <v>1.032869615536495</v>
+        <v>1.046791646328927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015476322578921</v>
+        <v>1.03333387594523</v>
       </c>
       <c r="D6">
-        <v>1.030818735001899</v>
+        <v>1.038078675530017</v>
       </c>
       <c r="E6">
-        <v>1.019228039540011</v>
+        <v>1.032621676924615</v>
       </c>
       <c r="F6">
-        <v>1.023493636900342</v>
+        <v>1.044433369803565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05091945399876</v>
+        <v>1.039141727503068</v>
       </c>
       <c r="J6">
-        <v>1.03397289357512</v>
+        <v>1.0377647485668</v>
       </c>
       <c r="K6">
-        <v>1.040307057339233</v>
+        <v>1.040497046512009</v>
       </c>
       <c r="L6">
-        <v>1.02884412790275</v>
+        <v>1.035053514305365</v>
       </c>
       <c r="M6">
-        <v>1.033062291219007</v>
+        <v>1.04683624978616</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014150516393284</v>
+        <v>1.033049356631621</v>
       </c>
       <c r="D7">
-        <v>1.029808940803862</v>
+        <v>1.037857889002933</v>
       </c>
       <c r="E7">
-        <v>1.018166315673648</v>
+        <v>1.032379988930405</v>
       </c>
       <c r="F7">
-        <v>1.021894404128074</v>
+        <v>1.044066500796046</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050432608118586</v>
+        <v>1.039056678459721</v>
       </c>
       <c r="J7">
-        <v>1.033193087563925</v>
+        <v>1.037593104263583</v>
       </c>
       <c r="K7">
-        <v>1.039557547047407</v>
+        <v>1.040336474644788</v>
       </c>
       <c r="L7">
-        <v>1.0280473944023</v>
+        <v>1.034872449110846</v>
       </c>
       <c r="M7">
-        <v>1.031732658423234</v>
+        <v>1.046529550676067</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008493122034833</v>
+        <v>1.031860668856281</v>
       </c>
       <c r="D8">
-        <v>1.025503613601147</v>
+        <v>1.036935330015097</v>
       </c>
       <c r="E8">
-        <v>1.01364737610357</v>
+        <v>1.031371008837343</v>
       </c>
       <c r="F8">
-        <v>1.015073272976215</v>
+        <v>1.04253428443585</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048333000644904</v>
+        <v>1.038698742758257</v>
       </c>
       <c r="J8">
-        <v>1.029857793024378</v>
+        <v>1.03687494451887</v>
       </c>
       <c r="K8">
-        <v>1.036348857837258</v>
+        <v>1.039664236486102</v>
       </c>
       <c r="L8">
-        <v>1.024645604570909</v>
+        <v>1.034115524681801</v>
       </c>
       <c r="M8">
-        <v>1.026052865938747</v>
+        <v>1.045247666650594</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.998053618612023</v>
+        <v>1.029768202768907</v>
       </c>
       <c r="D9">
-        <v>1.017575995999344</v>
+        <v>1.03531084447317</v>
       </c>
       <c r="E9">
-        <v>1.005355941741463</v>
+        <v>1.029597797391679</v>
       </c>
       <c r="F9">
-        <v>1.002494005457993</v>
+        <v>1.039838987484017</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044375727652709</v>
+        <v>1.038058830847039</v>
       </c>
       <c r="J9">
-        <v>1.023675296341175</v>
+        <v>1.035606811775506</v>
       </c>
       <c r="K9">
-        <v>1.03039020879284</v>
+        <v>1.038475672004901</v>
       </c>
       <c r="L9">
-        <v>1.018362716118165</v>
+        <v>1.032781402400711</v>
       </c>
       <c r="M9">
-        <v>1.01554674834578</v>
+        <v>1.042989092638506</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9907427554277325</v>
+        <v>1.028374722259588</v>
       </c>
       <c r="D10">
-        <v>1.012038817286622</v>
+        <v>1.034228717871831</v>
       </c>
       <c r="E10">
-        <v>0.9995843126618357</v>
+        <v>1.028418915128055</v>
       </c>
       <c r="F10">
-        <v>0.9936857955491748</v>
+        <v>1.038045259478133</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041550385291845</v>
+        <v>1.037626076192852</v>
       </c>
       <c r="J10">
-        <v>1.019328535251869</v>
+        <v>1.034759656853621</v>
       </c>
       <c r="K10">
-        <v>1.026194056808643</v>
+        <v>1.037680656988666</v>
       </c>
       <c r="L10">
-        <v>1.013961076530209</v>
+        <v>1.031891820509401</v>
       </c>
       <c r="M10">
-        <v>1.00816999850801</v>
+        <v>1.041483566461935</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9874852938092944</v>
+        <v>1.027771694656534</v>
       </c>
       <c r="D11">
-        <v>1.009575843650036</v>
+        <v>1.033760364356198</v>
       </c>
       <c r="E11">
-        <v>0.9970216538592894</v>
+        <v>1.027909233831073</v>
       </c>
       <c r="F11">
-        <v>0.9897604495141636</v>
+        <v>1.037269298606128</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040279173890343</v>
+        <v>1.037437236333834</v>
       </c>
       <c r="J11">
-        <v>1.017388128645542</v>
+        <v>1.034392427367842</v>
       </c>
       <c r="K11">
-        <v>1.024319405130657</v>
+        <v>1.037335790519506</v>
       </c>
       <c r="L11">
-        <v>1.011999956848489</v>
+        <v>1.031506592652149</v>
       </c>
       <c r="M11">
-        <v>1.004878087184328</v>
+        <v>1.040831703029612</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9862607512472303</v>
+        <v>1.027547757965036</v>
       </c>
       <c r="D12">
-        <v>1.008650660700989</v>
+        <v>1.033586430349573</v>
       </c>
       <c r="E12">
-        <v>0.9960597113600681</v>
+        <v>1.027720034233279</v>
       </c>
       <c r="F12">
-        <v>0.9882846362564592</v>
+        <v>1.036981182460219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039799489370741</v>
+        <v>1.037366874725869</v>
       </c>
       <c r="J12">
-        <v>1.016658181665706</v>
+        <v>1.034255961699325</v>
       </c>
       <c r="K12">
-        <v>1.023613983360947</v>
+        <v>1.037207599388003</v>
       </c>
       <c r="L12">
-        <v>1.011262792437695</v>
+        <v>1.03136349772604</v>
       </c>
       <c r="M12">
-        <v>1.003639779420501</v>
+        <v>1.040589577811385</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9865240925931456</v>
+        <v>1.027595790662621</v>
       </c>
       <c r="D13">
-        <v>1.008849591368432</v>
+        <v>1.03362373825757</v>
       </c>
       <c r="E13">
-        <v>0.9962665150736372</v>
+        <v>1.027760612797778</v>
       </c>
       <c r="F13">
-        <v>0.9886020246699471</v>
+        <v>1.037042979364403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039902728042259</v>
+        <v>1.037381977391491</v>
       </c>
       <c r="J13">
-        <v>1.016815181302521</v>
+        <v>1.034285236765603</v>
       </c>
       <c r="K13">
-        <v>1.023765717356635</v>
+        <v>1.037235100988967</v>
       </c>
       <c r="L13">
-        <v>1.011421318373576</v>
+        <v>1.031394192248058</v>
       </c>
       <c r="M13">
-        <v>1.0039061186736</v>
+        <v>1.040641514226667</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9873843748206278</v>
+        <v>1.027753182861516</v>
       </c>
       <c r="D14">
-        <v>1.009499581430863</v>
+        <v>1.033745986230276</v>
       </c>
       <c r="E14">
-        <v>0.9969423476622873</v>
+        <v>1.027893592104508</v>
       </c>
       <c r="F14">
-        <v>0.9896388270188868</v>
+        <v>1.037245480587156</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040239677923022</v>
+        <v>1.037431424667702</v>
       </c>
       <c r="J14">
-        <v>1.017327981234717</v>
+        <v>1.034381148298992</v>
       </c>
       <c r="K14">
-        <v>1.02426128280325</v>
+        <v>1.037325196080641</v>
       </c>
       <c r="L14">
-        <v>1.011939203014822</v>
+        <v>1.031494764460821</v>
       </c>
       <c r="M14">
-        <v>1.004776050619225</v>
+        <v>1.040811688763622</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9879124672100777</v>
+        <v>1.027850164648004</v>
       </c>
       <c r="D15">
-        <v>1.009898677796819</v>
+        <v>1.033821311692773</v>
       </c>
       <c r="E15">
-        <v>0.9973574017397875</v>
+        <v>1.027975540811951</v>
       </c>
       <c r="F15">
-        <v>0.9902752487169957</v>
+        <v>1.037370262880578</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040446280210556</v>
+        <v>1.037461861881516</v>
       </c>
       <c r="J15">
-        <v>1.017642702100451</v>
+        <v>1.034440234592053</v>
       </c>
       <c r="K15">
-        <v>1.024565398921186</v>
+        <v>1.037380694422283</v>
       </c>
       <c r="L15">
-        <v>1.012257120426448</v>
+        <v>1.031556729795156</v>
       </c>
       <c r="M15">
-        <v>1.005309957582502</v>
+        <v>1.040916539691432</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9909569425639162</v>
+        <v>1.028414750833937</v>
       </c>
       <c r="D16">
-        <v>1.012200857532614</v>
+        <v>1.034259805566317</v>
       </c>
       <c r="E16">
-        <v>0.99975300667897</v>
+        <v>1.028452757583249</v>
       </c>
       <c r="F16">
-        <v>0.9939438753447936</v>
+        <v>1.038096772919566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041633717478536</v>
+        <v>1.037638578267912</v>
       </c>
       <c r="J16">
-        <v>1.019456049534121</v>
+        <v>1.034784020173352</v>
       </c>
       <c r="K16">
-        <v>1.026317220184211</v>
+        <v>1.037703531646486</v>
       </c>
       <c r="L16">
-        <v>1.014090031236163</v>
+        <v>1.031917386187237</v>
       </c>
       <c r="M16">
-        <v>1.008386340624592</v>
+        <v>1.041526829317604</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9928415463606627</v>
+        <v>1.028768997365914</v>
       </c>
       <c r="D17">
-        <v>1.013627113146747</v>
+        <v>1.034534919395727</v>
       </c>
       <c r="E17">
-        <v>1.001238351110415</v>
+        <v>1.028752313378788</v>
       </c>
       <c r="F17">
-        <v>0.9962145924281276</v>
+        <v>1.038552690174112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042365547108753</v>
+        <v>1.037749038734095</v>
       </c>
       <c r="J17">
-        <v>1.020577620248844</v>
+        <v>1.034999559619519</v>
       </c>
       <c r="K17">
-        <v>1.027400355240831</v>
+        <v>1.037905873511057</v>
       </c>
       <c r="L17">
-        <v>1.015224702329567</v>
+        <v>1.0321436081462</v>
       </c>
       <c r="M17">
-        <v>1.010289320695507</v>
+        <v>1.041909658389057</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9939320013784848</v>
+        <v>1.028975657930608</v>
       </c>
       <c r="D18">
-        <v>1.014452755863069</v>
+        <v>1.034695409253265</v>
       </c>
       <c r="E18">
-        <v>1.002098636749118</v>
+        <v>1.028927114628223</v>
       </c>
       <c r="F18">
-        <v>0.9975283954951454</v>
+        <v>1.038818689942444</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042787819563133</v>
+        <v>1.037813328114948</v>
       </c>
       <c r="J18">
-        <v>1.021226226801859</v>
+        <v>1.035125240930872</v>
       </c>
       <c r="K18">
-        <v>1.02802659363246</v>
+        <v>1.038023836253867</v>
       </c>
       <c r="L18">
-        <v>1.015881243050617</v>
+        <v>1.032275556346191</v>
       </c>
       <c r="M18">
-        <v>1.011389928872007</v>
+        <v>1.042132959906379</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9943023481577024</v>
+        <v>1.029046129681805</v>
       </c>
       <c r="D19">
-        <v>1.014733230382194</v>
+        <v>1.034750135609733</v>
       </c>
       <c r="E19">
-        <v>1.002390953924808</v>
+        <v>1.028986730094346</v>
       </c>
       <c r="F19">
-        <v>0.9979745891918858</v>
+        <v>1.038909401028914</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042931033992603</v>
+        <v>1.037835225315949</v>
       </c>
       <c r="J19">
-        <v>1.021446450275023</v>
+        <v>1.035168088340225</v>
       </c>
       <c r="K19">
-        <v>1.028239198167048</v>
+        <v>1.038064048327843</v>
       </c>
       <c r="L19">
-        <v>1.016104221032945</v>
+        <v>1.032320546697973</v>
       </c>
       <c r="M19">
-        <v>1.011763643990662</v>
+        <v>1.042209100598012</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9926402621692444</v>
+        <v>1.028730986486002</v>
       </c>
       <c r="D20">
-        <v>1.013474741312477</v>
+        <v>1.034505400144978</v>
       </c>
       <c r="E20">
-        <v>1.001079621307547</v>
+        <v>1.028720166067185</v>
       </c>
       <c r="F20">
-        <v>0.9959720766455415</v>
+        <v>1.038503767230245</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042287505832703</v>
+        <v>1.037737201884548</v>
       </c>
       <c r="J20">
-        <v>1.02045786729585</v>
+        <v>1.034976438326566</v>
       </c>
       <c r="K20">
-        <v>1.027284720687555</v>
+        <v>1.037884170328469</v>
       </c>
       <c r="L20">
-        <v>1.015103513403967</v>
+        <v>1.032119337000297</v>
       </c>
       <c r="M20">
-        <v>1.010086123934526</v>
+        <v>1.041868584060095</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9871314520992414</v>
+        <v>1.027706833268484</v>
       </c>
       <c r="D21">
-        <v>1.009308464840254</v>
+        <v>1.033709986319825</v>
       </c>
       <c r="E21">
-        <v>0.9967436137564686</v>
+        <v>1.027854429726218</v>
       </c>
       <c r="F21">
-        <v>0.9893340137125288</v>
+        <v>1.037185845981668</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040140664269463</v>
+        <v>1.037416869693997</v>
       </c>
       <c r="J21">
-        <v>1.017177231960906</v>
+        <v>1.034352906401665</v>
       </c>
       <c r="K21">
-        <v>1.024115605704041</v>
+        <v>1.037298667865646</v>
       </c>
       <c r="L21">
-        <v>1.011786943117899</v>
+        <v>1.031465148558816</v>
       </c>
       <c r="M21">
-        <v>1.004520313729667</v>
+        <v>1.040761576441708</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9835830801935624</v>
+        <v>1.027063223810968</v>
       </c>
       <c r="D22">
-        <v>1.006628946199625</v>
+        <v>1.033210071542979</v>
       </c>
       <c r="E22">
-        <v>0.9939589248471918</v>
+        <v>1.027310794436373</v>
       </c>
       <c r="F22">
-        <v>0.9850570430876292</v>
+        <v>1.036357854495818</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038747293513344</v>
+        <v>1.03721420261248</v>
       </c>
       <c r="J22">
-        <v>1.015061130583671</v>
+        <v>1.033960518670941</v>
       </c>
       <c r="K22">
-        <v>1.022070216340533</v>
+        <v>1.036930005170764</v>
       </c>
       <c r="L22">
-        <v>1.009651014121998</v>
+        <v>1.031053810726771</v>
       </c>
       <c r="M22">
-        <v>1.000930450970833</v>
+        <v>1.04006559085349</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.985472450668666</v>
+        <v>1.027404383135193</v>
       </c>
       <c r="D23">
-        <v>1.008055277876559</v>
+        <v>1.033475067111603</v>
       </c>
       <c r="E23">
-        <v>0.9954408652722889</v>
+        <v>1.027598920232239</v>
       </c>
       <c r="F23">
-        <v>0.9873345113911319</v>
+        <v>1.036796728041537</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039490186846263</v>
+        <v>1.03732175970827</v>
       </c>
       <c r="J23">
-        <v>1.016188138302698</v>
+        <v>1.03416856363342</v>
       </c>
       <c r="K23">
-        <v>1.023159674895884</v>
+        <v>1.03712549061733</v>
       </c>
       <c r="L23">
-        <v>1.010788264139173</v>
+        <v>1.031271870658958</v>
       </c>
       <c r="M23">
-        <v>1.002842381250757</v>
+        <v>1.040434542763046</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9927312409763177</v>
+        <v>1.02874816185972</v>
       </c>
       <c r="D24">
-        <v>1.013543610918901</v>
+        <v>1.034518738560152</v>
       </c>
       <c r="E24">
-        <v>1.001151363257555</v>
+        <v>1.0287346918206</v>
       </c>
       <c r="F24">
-        <v>0.9960816919792965</v>
+        <v>1.038525873183321</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042322783491743</v>
+        <v>1.037742550880986</v>
       </c>
       <c r="J24">
-        <v>1.020511995732628</v>
+        <v>1.034986885964768</v>
       </c>
       <c r="K24">
-        <v>1.027336988041522</v>
+        <v>1.03789397724743</v>
       </c>
       <c r="L24">
-        <v>1.015158289791092</v>
+        <v>1.032130304096467</v>
       </c>
       <c r="M24">
-        <v>1.010177968690738</v>
+        <v>1.041887143769457</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.000811680318979</v>
+        <v>1.030308895160678</v>
       </c>
       <c r="D25">
-        <v>1.019668149154771</v>
+        <v>1.035730665764296</v>
       </c>
       <c r="E25">
-        <v>1.007540695535074</v>
+        <v>1.030055645916074</v>
       </c>
       <c r="F25">
-        <v>1.00581687807087</v>
+        <v>1.040535233574657</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045430678861299</v>
+        <v>1.038225348850053</v>
       </c>
       <c r="J25">
-        <v>1.025311759026347</v>
+        <v>1.035934963196349</v>
       </c>
       <c r="K25">
-        <v>1.031968626344613</v>
+        <v>1.038783412961641</v>
       </c>
       <c r="L25">
-        <v>1.020023068957107</v>
+        <v>1.033126338183153</v>
       </c>
       <c r="M25">
-        <v>1.018325560658806</v>
+        <v>1.043572955349557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_117/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031554796368141</v>
+        <v>1.00700595323723</v>
       </c>
       <c r="D2">
-        <v>1.03669790318922</v>
+        <v>1.024372885327819</v>
       </c>
       <c r="E2">
-        <v>1.031111575187526</v>
+        <v>1.012462523687149</v>
       </c>
       <c r="F2">
-        <v>1.042140145816711</v>
+        <v>1.013280835312599</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038605971110588</v>
+        <v>1.047775483627327</v>
       </c>
       <c r="J2">
-        <v>1.036689879752767</v>
+        <v>1.02897911778221</v>
       </c>
       <c r="K2">
-        <v>1.039490901972486</v>
+        <v>1.035502797018331</v>
       </c>
       <c r="L2">
-        <v>1.03392063742663</v>
+        <v>1.023750923755773</v>
       </c>
       <c r="M2">
-        <v>1.044917675235453</v>
+        <v>1.024558196463724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032460036712933</v>
+        <v>1.011369789154961</v>
       </c>
       <c r="D3">
-        <v>1.037400536042004</v>
+        <v>1.027692034262041</v>
       </c>
       <c r="E3">
-        <v>1.03187961037638</v>
+        <v>1.015942842983743</v>
       </c>
       <c r="F3">
-        <v>1.043306765786308</v>
+        <v>1.018541128022985</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038879744769842</v>
+        <v>1.049404955701816</v>
       </c>
       <c r="J3">
-        <v>1.037237269270151</v>
+        <v>1.031555229059684</v>
       </c>
       <c r="K3">
-        <v>1.040003473749549</v>
+        <v>1.037982438965674</v>
       </c>
       <c r="L3">
-        <v>1.03449727674933</v>
+        <v>1.026375716489115</v>
       </c>
       <c r="M3">
-        <v>1.045894133353827</v>
+        <v>1.028942143245113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033046064061433</v>
+        <v>1.014135110283141</v>
       </c>
       <c r="D4">
-        <v>1.037855333895837</v>
+        <v>1.02979720862476</v>
       </c>
       <c r="E4">
-        <v>1.032377192438332</v>
+        <v>1.018153984395806</v>
       </c>
       <c r="F4">
-        <v>1.044062255530107</v>
+        <v>1.021875822548746</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039055692806187</v>
+        <v>1.050426938775522</v>
       </c>
       <c r="J4">
-        <v>1.037591117351046</v>
+        <v>1.033184021792907</v>
       </c>
       <c r="K4">
-        <v>1.040334615681425</v>
+        <v>1.039548831850862</v>
       </c>
       <c r="L4">
-        <v>1.034870353501824</v>
+        <v>1.028038135025303</v>
       </c>
       <c r="M4">
-        <v>1.046526001143164</v>
+        <v>1.031717204643886</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033292495258369</v>
+        <v>1.015284167663715</v>
       </c>
       <c r="D5">
-        <v>1.038046565017826</v>
+        <v>1.030672362123088</v>
       </c>
       <c r="E5">
-        <v>1.032586521217617</v>
+        <v>1.019074094217087</v>
       </c>
       <c r="F5">
-        <v>1.044380009051141</v>
+        <v>1.023261833619441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039129373161291</v>
+        <v>1.050849022054023</v>
       </c>
       <c r="J5">
-        <v>1.037739790641141</v>
+        <v>1.033859918523443</v>
       </c>
       <c r="K5">
-        <v>1.04047370094398</v>
+        <v>1.040198488807637</v>
       </c>
       <c r="L5">
-        <v>1.035027182730889</v>
+        <v>1.028728666638085</v>
       </c>
       <c r="M5">
-        <v>1.046791646328927</v>
+        <v>1.032869615536496</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03333387594523</v>
+        <v>1.015476322578921</v>
       </c>
       <c r="D6">
-        <v>1.038078675530017</v>
+        <v>1.030818735001898</v>
       </c>
       <c r="E6">
-        <v>1.032621676924615</v>
+        <v>1.01922803954001</v>
       </c>
       <c r="F6">
-        <v>1.044433369803565</v>
+        <v>1.023493636900341</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039141727503068</v>
+        <v>1.050919453998759</v>
       </c>
       <c r="J6">
-        <v>1.0377647485668</v>
+        <v>1.033972893575119</v>
       </c>
       <c r="K6">
-        <v>1.040497046512009</v>
+        <v>1.040307057339232</v>
       </c>
       <c r="L6">
-        <v>1.035053514305365</v>
+        <v>1.028844127902749</v>
       </c>
       <c r="M6">
-        <v>1.04683624978616</v>
+        <v>1.033062291219006</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033049356631621</v>
+        <v>1.014150516393284</v>
       </c>
       <c r="D7">
-        <v>1.037857889002933</v>
+        <v>1.029808940803862</v>
       </c>
       <c r="E7">
-        <v>1.032379988930405</v>
+        <v>1.018166315673648</v>
       </c>
       <c r="F7">
-        <v>1.044066500796046</v>
+        <v>1.021894404128074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039056678459721</v>
+        <v>1.050432608118585</v>
       </c>
       <c r="J7">
-        <v>1.037593104263583</v>
+        <v>1.033193087563925</v>
       </c>
       <c r="K7">
-        <v>1.040336474644788</v>
+        <v>1.039557547047407</v>
       </c>
       <c r="L7">
-        <v>1.034872449110846</v>
+        <v>1.0280473944023</v>
       </c>
       <c r="M7">
-        <v>1.046529550676067</v>
+        <v>1.031732658423234</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031860668856281</v>
+        <v>1.008493122034832</v>
       </c>
       <c r="D8">
-        <v>1.036935330015097</v>
+        <v>1.025503613601147</v>
       </c>
       <c r="E8">
-        <v>1.031371008837343</v>
+        <v>1.01364737610357</v>
       </c>
       <c r="F8">
-        <v>1.04253428443585</v>
+        <v>1.015073272976214</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038698742758257</v>
+        <v>1.048333000644904</v>
       </c>
       <c r="J8">
-        <v>1.03687494451887</v>
+        <v>1.029857793024377</v>
       </c>
       <c r="K8">
-        <v>1.039664236486102</v>
+        <v>1.036348857837257</v>
       </c>
       <c r="L8">
-        <v>1.034115524681801</v>
+        <v>1.024645604570908</v>
       </c>
       <c r="M8">
-        <v>1.045247666650594</v>
+        <v>1.026052865938746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029768202768907</v>
+        <v>0.9980536186120228</v>
       </c>
       <c r="D9">
-        <v>1.03531084447317</v>
+        <v>1.017575995999344</v>
       </c>
       <c r="E9">
-        <v>1.029597797391679</v>
+        <v>1.005355941741462</v>
       </c>
       <c r="F9">
-        <v>1.039838987484017</v>
+        <v>1.002494005457993</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038058830847039</v>
+        <v>1.044375727652709</v>
       </c>
       <c r="J9">
-        <v>1.035606811775506</v>
+        <v>1.023675296341175</v>
       </c>
       <c r="K9">
-        <v>1.038475672004901</v>
+        <v>1.03039020879284</v>
       </c>
       <c r="L9">
-        <v>1.032781402400711</v>
+        <v>1.018362716118165</v>
       </c>
       <c r="M9">
-        <v>1.042989092638506</v>
+        <v>1.015546748345779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028374722259588</v>
+        <v>0.9907427554277324</v>
       </c>
       <c r="D10">
-        <v>1.034228717871831</v>
+        <v>1.012038817286622</v>
       </c>
       <c r="E10">
-        <v>1.028418915128055</v>
+        <v>0.9995843126618352</v>
       </c>
       <c r="F10">
-        <v>1.038045259478133</v>
+        <v>0.9936857955491749</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037626076192852</v>
+        <v>1.041550385291844</v>
       </c>
       <c r="J10">
-        <v>1.034759656853621</v>
+        <v>1.019328535251869</v>
       </c>
       <c r="K10">
-        <v>1.037680656988666</v>
+        <v>1.026194056808643</v>
       </c>
       <c r="L10">
-        <v>1.031891820509401</v>
+        <v>1.013961076530208</v>
       </c>
       <c r="M10">
-        <v>1.041483566461935</v>
+        <v>1.00816999850801</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027771694656534</v>
+        <v>0.9874852938092942</v>
       </c>
       <c r="D11">
-        <v>1.033760364356198</v>
+        <v>1.009575843650036</v>
       </c>
       <c r="E11">
-        <v>1.027909233831073</v>
+        <v>0.9970216538592892</v>
       </c>
       <c r="F11">
-        <v>1.037269298606128</v>
+        <v>0.9897604495141634</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037437236333834</v>
+        <v>1.040279173890343</v>
       </c>
       <c r="J11">
-        <v>1.034392427367842</v>
+        <v>1.017388128645542</v>
       </c>
       <c r="K11">
-        <v>1.037335790519506</v>
+        <v>1.024319405130656</v>
       </c>
       <c r="L11">
-        <v>1.031506592652149</v>
+        <v>1.011999956848488</v>
       </c>
       <c r="M11">
-        <v>1.040831703029612</v>
+        <v>1.004878087184327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027547757965036</v>
+        <v>0.9862607512472306</v>
       </c>
       <c r="D12">
-        <v>1.033586430349573</v>
+        <v>1.008650660700989</v>
       </c>
       <c r="E12">
-        <v>1.027720034233279</v>
+        <v>0.9960597113600681</v>
       </c>
       <c r="F12">
-        <v>1.036981182460219</v>
+        <v>0.9882846362564596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037366874725869</v>
+        <v>1.039799489370741</v>
       </c>
       <c r="J12">
-        <v>1.034255961699325</v>
+        <v>1.016658181665706</v>
       </c>
       <c r="K12">
-        <v>1.037207599388003</v>
+        <v>1.023613983360947</v>
       </c>
       <c r="L12">
-        <v>1.03136349772604</v>
+        <v>1.011262792437695</v>
       </c>
       <c r="M12">
-        <v>1.040589577811385</v>
+        <v>1.003639779420502</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027595790662621</v>
+        <v>0.9865240925931462</v>
       </c>
       <c r="D13">
-        <v>1.03362373825757</v>
+        <v>1.008849591368432</v>
       </c>
       <c r="E13">
-        <v>1.027760612797778</v>
+        <v>0.9962665150736381</v>
       </c>
       <c r="F13">
-        <v>1.037042979364403</v>
+        <v>0.9886020246699475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037381977391491</v>
+        <v>1.039902728042259</v>
       </c>
       <c r="J13">
-        <v>1.034285236765603</v>
+        <v>1.016815181302521</v>
       </c>
       <c r="K13">
-        <v>1.037235100988967</v>
+        <v>1.023765717356635</v>
       </c>
       <c r="L13">
-        <v>1.031394192248058</v>
+        <v>1.011421318373577</v>
       </c>
       <c r="M13">
-        <v>1.040641514226667</v>
+        <v>1.0039061186736</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027753182861516</v>
+        <v>0.9873843748206268</v>
       </c>
       <c r="D14">
-        <v>1.033745986230276</v>
+        <v>1.009499581430862</v>
       </c>
       <c r="E14">
-        <v>1.027893592104508</v>
+        <v>0.9969423476622866</v>
       </c>
       <c r="F14">
-        <v>1.037245480587156</v>
+        <v>0.9896388270188864</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037431424667702</v>
+        <v>1.040239677923021</v>
       </c>
       <c r="J14">
-        <v>1.034381148298992</v>
+        <v>1.017327981234716</v>
       </c>
       <c r="K14">
-        <v>1.037325196080641</v>
+        <v>1.024261282803249</v>
       </c>
       <c r="L14">
-        <v>1.031494764460821</v>
+        <v>1.011939203014822</v>
       </c>
       <c r="M14">
-        <v>1.040811688763622</v>
+        <v>1.004776050619224</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027850164648004</v>
+        <v>0.9879124672100769</v>
       </c>
       <c r="D15">
-        <v>1.033821311692773</v>
+        <v>1.009898677796818</v>
       </c>
       <c r="E15">
-        <v>1.027975540811951</v>
+        <v>0.9973574017397863</v>
       </c>
       <c r="F15">
-        <v>1.037370262880578</v>
+        <v>0.9902752487169946</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037461861881516</v>
+        <v>1.040446280210555</v>
       </c>
       <c r="J15">
-        <v>1.034440234592053</v>
+        <v>1.01764270210045</v>
       </c>
       <c r="K15">
-        <v>1.037380694422283</v>
+        <v>1.024565398921185</v>
       </c>
       <c r="L15">
-        <v>1.031556729795156</v>
+        <v>1.012257120426447</v>
       </c>
       <c r="M15">
-        <v>1.040916539691432</v>
+        <v>1.0053099575825</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028414750833937</v>
+        <v>0.9909569425639141</v>
       </c>
       <c r="D16">
-        <v>1.034259805566317</v>
+        <v>1.012200857532612</v>
       </c>
       <c r="E16">
-        <v>1.028452757583249</v>
+        <v>0.9997530066789679</v>
       </c>
       <c r="F16">
-        <v>1.038096772919566</v>
+        <v>0.9939438753447916</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037638578267912</v>
+        <v>1.041633717478534</v>
       </c>
       <c r="J16">
-        <v>1.034784020173352</v>
+        <v>1.019456049534119</v>
       </c>
       <c r="K16">
-        <v>1.037703531646486</v>
+        <v>1.026317220184209</v>
       </c>
       <c r="L16">
-        <v>1.031917386187237</v>
+        <v>1.014090031236161</v>
       </c>
       <c r="M16">
-        <v>1.041526829317604</v>
+        <v>1.00838634062459</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028768997365914</v>
+        <v>0.9928415463606618</v>
       </c>
       <c r="D17">
-        <v>1.034534919395727</v>
+        <v>1.013627113146746</v>
       </c>
       <c r="E17">
-        <v>1.028752313378788</v>
+        <v>1.001238351110414</v>
       </c>
       <c r="F17">
-        <v>1.038552690174112</v>
+        <v>0.9962145924281267</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037749038734095</v>
+        <v>1.042365547108753</v>
       </c>
       <c r="J17">
-        <v>1.034999559619519</v>
+        <v>1.020577620248843</v>
       </c>
       <c r="K17">
-        <v>1.037905873511057</v>
+        <v>1.02740035524083</v>
       </c>
       <c r="L17">
-        <v>1.0321436081462</v>
+        <v>1.015224702329567</v>
       </c>
       <c r="M17">
-        <v>1.041909658389057</v>
+        <v>1.010289320695506</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028975657930608</v>
+        <v>0.9939320013784854</v>
       </c>
       <c r="D18">
-        <v>1.034695409253265</v>
+        <v>1.01445275586307</v>
       </c>
       <c r="E18">
-        <v>1.028927114628223</v>
+        <v>1.002098636749119</v>
       </c>
       <c r="F18">
-        <v>1.038818689942444</v>
+        <v>0.9975283954951462</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037813328114948</v>
+        <v>1.042787819563133</v>
       </c>
       <c r="J18">
-        <v>1.035125240930872</v>
+        <v>1.02122622680186</v>
       </c>
       <c r="K18">
-        <v>1.038023836253867</v>
+        <v>1.028026593632461</v>
       </c>
       <c r="L18">
-        <v>1.032275556346191</v>
+        <v>1.015881243050618</v>
       </c>
       <c r="M18">
-        <v>1.042132959906379</v>
+        <v>1.011389928872008</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029046129681805</v>
+        <v>0.9943023481577012</v>
       </c>
       <c r="D19">
-        <v>1.034750135609733</v>
+        <v>1.014733230382193</v>
       </c>
       <c r="E19">
-        <v>1.028986730094346</v>
+        <v>1.002390953924807</v>
       </c>
       <c r="F19">
-        <v>1.038909401028914</v>
+        <v>0.9979745891918851</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037835225315949</v>
+        <v>1.042931033992602</v>
       </c>
       <c r="J19">
-        <v>1.035168088340225</v>
+        <v>1.021446450275022</v>
       </c>
       <c r="K19">
-        <v>1.038064048327843</v>
+        <v>1.028239198167047</v>
       </c>
       <c r="L19">
-        <v>1.032320546697973</v>
+        <v>1.016104221032944</v>
       </c>
       <c r="M19">
-        <v>1.042209100598012</v>
+        <v>1.011763643990661</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028730986486002</v>
+        <v>0.9926402621692449</v>
       </c>
       <c r="D20">
-        <v>1.034505400144978</v>
+        <v>1.013474741312478</v>
       </c>
       <c r="E20">
-        <v>1.028720166067185</v>
+        <v>1.001079621307548</v>
       </c>
       <c r="F20">
-        <v>1.038503767230245</v>
+        <v>0.9959720766455422</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037737201884548</v>
+        <v>1.042287505832703</v>
       </c>
       <c r="J20">
-        <v>1.034976438326566</v>
+        <v>1.020457867295851</v>
       </c>
       <c r="K20">
-        <v>1.037884170328469</v>
+        <v>1.027284720687555</v>
       </c>
       <c r="L20">
-        <v>1.032119337000297</v>
+        <v>1.015103513403968</v>
       </c>
       <c r="M20">
-        <v>1.041868584060095</v>
+        <v>1.010086123934527</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027706833268484</v>
+        <v>0.9871314520992416</v>
       </c>
       <c r="D21">
-        <v>1.033709986319825</v>
+        <v>1.009308464840254</v>
       </c>
       <c r="E21">
-        <v>1.027854429726218</v>
+        <v>0.9967436137564687</v>
       </c>
       <c r="F21">
-        <v>1.037185845981668</v>
+        <v>0.9893340137125288</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037416869693997</v>
+        <v>1.040140664269463</v>
       </c>
       <c r="J21">
-        <v>1.034352906401665</v>
+        <v>1.017177231960906</v>
       </c>
       <c r="K21">
-        <v>1.037298667865646</v>
+        <v>1.024115605704041</v>
       </c>
       <c r="L21">
-        <v>1.031465148558816</v>
+        <v>1.011786943117899</v>
       </c>
       <c r="M21">
-        <v>1.040761576441708</v>
+        <v>1.004520313729667</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027063223810968</v>
+        <v>0.9835830801935621</v>
       </c>
       <c r="D22">
-        <v>1.033210071542979</v>
+        <v>1.006628946199624</v>
       </c>
       <c r="E22">
-        <v>1.027310794436373</v>
+        <v>0.9939589248471914</v>
       </c>
       <c r="F22">
-        <v>1.036357854495818</v>
+        <v>0.9850570430876285</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03721420261248</v>
+        <v>1.038747293513344</v>
       </c>
       <c r="J22">
-        <v>1.033960518670941</v>
+        <v>1.015061130583671</v>
       </c>
       <c r="K22">
-        <v>1.036930005170764</v>
+        <v>1.022070216340532</v>
       </c>
       <c r="L22">
-        <v>1.031053810726771</v>
+        <v>1.009651014121998</v>
       </c>
       <c r="M22">
-        <v>1.04006559085349</v>
+        <v>1.000930450970833</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027404383135193</v>
+        <v>0.9854724506686652</v>
       </c>
       <c r="D23">
-        <v>1.033475067111603</v>
+        <v>1.008055277876558</v>
       </c>
       <c r="E23">
-        <v>1.027598920232239</v>
+        <v>0.9954408652722884</v>
       </c>
       <c r="F23">
-        <v>1.036796728041537</v>
+        <v>0.9873345113911312</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03732175970827</v>
+        <v>1.039490186846263</v>
       </c>
       <c r="J23">
-        <v>1.03416856363342</v>
+        <v>1.016188138302697</v>
       </c>
       <c r="K23">
-        <v>1.03712549061733</v>
+        <v>1.023159674895883</v>
       </c>
       <c r="L23">
-        <v>1.031271870658958</v>
+        <v>1.010788264139172</v>
       </c>
       <c r="M23">
-        <v>1.040434542763046</v>
+        <v>1.002842381250756</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02874816185972</v>
+        <v>0.9927312409763173</v>
       </c>
       <c r="D24">
-        <v>1.034518738560152</v>
+        <v>1.0135436109189</v>
       </c>
       <c r="E24">
-        <v>1.0287346918206</v>
+        <v>1.001151363257554</v>
       </c>
       <c r="F24">
-        <v>1.038525873183321</v>
+        <v>0.9960816919792959</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037742550880986</v>
+        <v>1.042322783491742</v>
       </c>
       <c r="J24">
-        <v>1.034986885964768</v>
+        <v>1.020511995732627</v>
       </c>
       <c r="K24">
-        <v>1.03789397724743</v>
+        <v>1.027336988041522</v>
       </c>
       <c r="L24">
-        <v>1.032130304096467</v>
+        <v>1.015158289791092</v>
       </c>
       <c r="M24">
-        <v>1.041887143769457</v>
+        <v>1.010177968690738</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030308895160678</v>
+        <v>1.000811680318978</v>
       </c>
       <c r="D25">
-        <v>1.035730665764296</v>
+        <v>1.019668149154771</v>
       </c>
       <c r="E25">
-        <v>1.030055645916074</v>
+        <v>1.007540695535074</v>
       </c>
       <c r="F25">
-        <v>1.040535233574657</v>
+        <v>1.005816878070871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038225348850053</v>
+        <v>1.045430678861299</v>
       </c>
       <c r="J25">
-        <v>1.035934963196349</v>
+        <v>1.025311759026347</v>
       </c>
       <c r="K25">
-        <v>1.038783412961641</v>
+        <v>1.031968626344613</v>
       </c>
       <c r="L25">
-        <v>1.033126338183153</v>
+        <v>1.020023068957107</v>
       </c>
       <c r="M25">
-        <v>1.043572955349557</v>
+        <v>1.018325560658806</v>
       </c>
     </row>
   </sheetData>
